--- a/submissioin/coe_project_2.xlsx
+++ b/submissioin/coe_project_2.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bander/Desktop/mx-kfupm/semseter-1/COE-502-01/coe-project/submissioin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1F5333-082C-1046-B758-461362E3E2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5677A9C8-2B2F-3047-918C-EDC8D7DFEF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{64E934FF-43A1-ED4B-B3F0-C2214751A4FD}"/>
   </bookViews>
   <sheets>
-    <sheet name="SPEEDUP_omp_Wave" sheetId="3" r:id="rId1"/>
-    <sheet name="SPEEDUP_omp_rb" sheetId="4" r:id="rId2"/>
+    <sheet name="SPEEDUP_MPI_rb" sheetId="5" r:id="rId1"/>
+    <sheet name="SPEEDUP_omp_Wave" sheetId="3" r:id="rId2"/>
+    <sheet name="SPEEDUP_omp_rb" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="9">
   <si>
     <t xml:space="preserve">N </t>
   </si>
@@ -199,7 +200,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>SPEEDUP_omp_Wave!$C$1:$C$2</c:f>
+              <c:f>SPEEDUP_MPI_rb!$C$1:$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -242,7 +243,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-0D0B-43CC-B7E3-5ED4E963AAF1}"/>
+                  <c16:uniqueId val="{00000000-2F1B-DD49-8AD6-909584FC067C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -264,7 +265,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-0D0B-43CC-B7E3-5ED4E963AAF1}"/>
+                  <c16:uniqueId val="{00000001-2F1B-DD49-8AD6-909584FC067C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -286,7 +287,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-0D0B-43CC-B7E3-5ED4E963AAF1}"/>
+                  <c16:uniqueId val="{00000002-2F1B-DD49-8AD6-909584FC067C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -349,7 +350,7 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>SPEEDUP_omp_Wave!$A$3:$B$8</c:f>
+              <c:f>SPEEDUP_MPI_rb!$A$3:$B$8</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="6"/>
                 <c:lvl>
@@ -397,27 +398,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SPEEDUP_omp_Wave!$C$3:$C$8</c:f>
+              <c:f>SPEEDUP_MPI_rb!$C$3:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.33333333333333337</c:v>
+                  <c:v>2.5075225677031092</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.44444444444444448</c:v>
+                  <c:v>2.7187765505522514</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.46153846153846151</c:v>
+                  <c:v>2.363693665300977</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5</c:v>
+                  <c:v>2.2302394227615614</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.51063829787234039</c:v>
+                  <c:v>2.1698053503783599</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.57377049180327866</c:v>
+                  <c:v>2.3930314922944387</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -425,7 +426,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-0D0B-43CC-B7E3-5ED4E963AAF1}"/>
+              <c16:uniqueId val="{00000003-2F1B-DD49-8AD6-909584FC067C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -434,7 +435,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>SPEEDUP_omp_Wave!$D$1:$D$2</c:f>
+              <c:f>SPEEDUP_MPI_rb!$D$1:$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -477,7 +478,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-0D0B-43CC-B7E3-5ED4E963AAF1}"/>
+                  <c16:uniqueId val="{00000004-2F1B-DD49-8AD6-909584FC067C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -499,7 +500,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-0D0B-43CC-B7E3-5ED4E963AAF1}"/>
+                  <c16:uniqueId val="{00000005-2F1B-DD49-8AD6-909584FC067C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -521,7 +522,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-0D0B-43CC-B7E3-5ED4E963AAF1}"/>
+                  <c16:uniqueId val="{00000006-2F1B-DD49-8AD6-909584FC067C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -543,7 +544,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-0D0B-43CC-B7E3-5ED4E963AAF1}"/>
+                  <c16:uniqueId val="{00000007-2F1B-DD49-8AD6-909584FC067C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -565,7 +566,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-0D0B-43CC-B7E3-5ED4E963AAF1}"/>
+                  <c16:uniqueId val="{00000008-2F1B-DD49-8AD6-909584FC067C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -587,7 +588,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-0D0B-43CC-B7E3-5ED4E963AAF1}"/>
+                  <c16:uniqueId val="{00000009-2F1B-DD49-8AD6-909584FC067C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -650,7 +651,7 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>SPEEDUP_omp_Wave!$A$3:$B$8</c:f>
+              <c:f>SPEEDUP_MPI_rb!$A$3:$B$8</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="6"/>
                 <c:lvl>
@@ -698,27 +699,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SPEEDUP_omp_Wave!$D$3:$D$8</c:f>
+              <c:f>SPEEDUP_MPI_rb!$D$3:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.22222222222222224</c:v>
+                  <c:v>5.4377379010331701</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33333333333333337</c:v>
+                  <c:v>4.8143467533249087</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3529411764705882</c:v>
+                  <c:v>4.4291883512346359</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.36956521739130438</c:v>
+                  <c:v>4.3798629360540016</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.40677966101694918</c:v>
+                  <c:v>3.9468490988027889</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.47945205479452052</c:v>
+                  <c:v>4.5969765028829608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -726,7 +727,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-0D0B-43CC-B7E3-5ED4E963AAF1}"/>
+              <c16:uniqueId val="{0000000A-2F1B-DD49-8AD6-909584FC067C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -735,7 +736,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>SPEEDUP_omp_Wave!$E$1:$E$2</c:f>
+              <c:f>SPEEDUP_MPI_rb!$E$1:$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -819,7 +820,7 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>SPEEDUP_omp_Wave!$A$3:$B$8</c:f>
+              <c:f>SPEEDUP_MPI_rb!$A$3:$B$8</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="6"/>
                 <c:lvl>
@@ -867,27 +868,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SPEEDUP_omp_Wave!$E$3:$E$8</c:f>
+              <c:f>SPEEDUP_MPI_rb!$E$3:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.08</c:v>
+                  <c:v>1.277139208173691</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10389610389610389</c:v>
+                  <c:v>1.2274268530309773</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.11764705882352941</c:v>
+                  <c:v>1.1074197120708749</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.13178294573643412</c:v>
+                  <c:v>1.388469171900651</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.14906832298136644</c:v>
+                  <c:v>1.9748047823189145</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.18229166666666666</c:v>
+                  <c:v>1.8652242265980974</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -895,7 +896,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-0D0B-43CC-B7E3-5ED4E963AAF1}"/>
+              <c16:uniqueId val="{0000000B-2F1B-DD49-8AD6-909584FC067C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -904,7 +905,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>SPEEDUP_omp_Wave!$F$1:$F$2</c:f>
+              <c:f>SPEEDUP_MPI_rb!$F$1:$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -947,7 +948,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000C-0D0B-43CC-B7E3-5ED4E963AAF1}"/>
+                  <c16:uniqueId val="{0000000C-2F1B-DD49-8AD6-909584FC067C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -969,7 +970,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000D-0D0B-43CC-B7E3-5ED4E963AAF1}"/>
+                  <c16:uniqueId val="{0000000D-2F1B-DD49-8AD6-909584FC067C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -991,7 +992,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000E-0D0B-43CC-B7E3-5ED4E963AAF1}"/>
+                  <c16:uniqueId val="{0000000E-2F1B-DD49-8AD6-909584FC067C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1013,7 +1014,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000F-0D0B-43CC-B7E3-5ED4E963AAF1}"/>
+                  <c16:uniqueId val="{0000000F-2F1B-DD49-8AD6-909584FC067C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1035,7 +1036,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000010-0D0B-43CC-B7E3-5ED4E963AAF1}"/>
+                  <c16:uniqueId val="{00000010-2F1B-DD49-8AD6-909584FC067C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1057,7 +1058,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000011-0D0B-43CC-B7E3-5ED4E963AAF1}"/>
+                  <c16:uniqueId val="{00000011-2F1B-DD49-8AD6-909584FC067C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1120,7 +1121,7 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>SPEEDUP_omp_Wave!$A$3:$B$8</c:f>
+              <c:f>SPEEDUP_MPI_rb!$A$3:$B$8</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="6"/>
                 <c:lvl>
@@ -1168,27 +1169,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SPEEDUP_omp_Wave!$F$3:$F$8</c:f>
+              <c:f>SPEEDUP_MPI_rb!$F$3:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.2553191489361708E-2</c:v>
+                  <c:v>6.8688277143460624E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.9701492537313432E-2</c:v>
+                  <c:v>0.12705531829739522</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.9364161849710976E-2</c:v>
+                  <c:v>0.20148866542303387</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.1428571428571438E-2</c:v>
+                  <c:v>0.25400809837584232</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.7912087912087905E-2</c:v>
+                  <c:v>0.31992108613208742</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.10903426791277258</c:v>
+                  <c:v>0.41795386505822096</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1196,7 +1197,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000012-0D0B-43CC-B7E3-5ED4E963AAF1}"/>
+              <c16:uniqueId val="{00000012-2F1B-DD49-8AD6-909584FC067C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1542,7 +1543,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>SPEEDUP_omp_Wave!$B$1</c:f>
+              <c:f>SPEEDUP_MPI_rb!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1565,11 +1566,10 @@
           </c:marker>
           <c:dLbls>
             <c:delete val="1"/>
-            <c:extLst/>
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>SPEEDUP_omp_Wave!$A$15:$A$20</c:f>
+              <c:f>SPEEDUP_MPI_rb!$A$15:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1596,7 +1596,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SPEEDUP_omp_Wave!$B$3:$B$8</c:f>
+              <c:f>SPEEDUP_MPI_rb!$B$3:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1624,7 +1624,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B019-4E9D-BF79-D2EEB0C775BD}"/>
+              <c16:uniqueId val="{00000000-B900-A44A-BE89-5B50B388CB27}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1633,7 +1633,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>SPEEDUP_omp_Wave!$C$2</c:f>
+              <c:f>SPEEDUP_MPI_rb!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1656,11 +1656,10 @@
           </c:marker>
           <c:dLbls>
             <c:delete val="1"/>
-            <c:extLst/>
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>SPEEDUP_omp_Wave!$A$15:$A$20</c:f>
+              <c:f>SPEEDUP_MPI_rb!$A$15:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1687,27 +1686,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SPEEDUP_omp_Wave!$C$15:$C$20</c:f>
+              <c:f>SPEEDUP_MPI_rb!$C$15:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.12</c:v>
+                  <c:v>1.5952000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18</c:v>
+                  <c:v>2.9425E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.26</c:v>
+                  <c:v>5.0768000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.34</c:v>
+                  <c:v>7.6225000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.47</c:v>
+                  <c:v>0.110609</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.61</c:v>
+                  <c:v>0.146258</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1715,7 +1714,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B019-4E9D-BF79-D2EEB0C775BD}"/>
+              <c16:uniqueId val="{00000001-B900-A44A-BE89-5B50B388CB27}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1724,7 +1723,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>SPEEDUP_omp_Wave!$D$2</c:f>
+              <c:f>SPEEDUP_MPI_rb!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1747,11 +1746,10 @@
           </c:marker>
           <c:dLbls>
             <c:delete val="1"/>
-            <c:extLst/>
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>SPEEDUP_omp_Wave!$A$15:$A$20</c:f>
+              <c:f>SPEEDUP_MPI_rb!$A$15:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1778,27 +1776,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SPEEDUP_omp_Wave!$D$15:$D$20</c:f>
+              <c:f>SPEEDUP_MPI_rb!$D$15:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.18</c:v>
+                  <c:v>7.3559999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24</c:v>
+                  <c:v>1.6617E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.34</c:v>
+                  <c:v>2.7092999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.46</c:v>
+                  <c:v>3.8814000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.59</c:v>
+                  <c:v>6.0808000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.73</c:v>
+                  <c:v>7.6136999999999996E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1806,7 +1804,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B019-4E9D-BF79-D2EEB0C775BD}"/>
+              <c16:uniqueId val="{00000002-B900-A44A-BE89-5B50B388CB27}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1815,7 +1813,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>SPEEDUP_omp_Wave!$E$2</c:f>
+              <c:f>SPEEDUP_MPI_rb!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1838,11 +1836,10 @@
           </c:marker>
           <c:dLbls>
             <c:delete val="1"/>
-            <c:extLst/>
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>SPEEDUP_omp_Wave!$A$15:$A$20</c:f>
+              <c:f>SPEEDUP_MPI_rb!$A$15:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1869,27 +1866,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SPEEDUP_omp_Wave!$E$15:$E$20</c:f>
+              <c:f>SPEEDUP_MPI_rb!$E$15:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>3.1320000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.77</c:v>
+                  <c:v>6.5176999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.02</c:v>
+                  <c:v>0.10836</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.29</c:v>
+                  <c:v>0.122437</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.61</c:v>
+                  <c:v>0.121531</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.92</c:v>
+                  <c:v>0.18764500000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1897,7 +1894,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-B019-4E9D-BF79-D2EEB0C775BD}"/>
+              <c16:uniqueId val="{00000003-B900-A44A-BE89-5B50B388CB27}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1906,7 +1903,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>SPEEDUP_omp_Wave!$F$2</c:f>
+              <c:f>SPEEDUP_MPI_rb!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1929,11 +1926,10 @@
           </c:marker>
           <c:dLbls>
             <c:delete val="1"/>
-            <c:extLst/>
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>SPEEDUP_omp_Wave!$A$15:$A$20</c:f>
+              <c:f>SPEEDUP_MPI_rb!$A$15:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1960,27 +1956,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SPEEDUP_omp_Wave!$F$15:$F$20</c:f>
+              <c:f>SPEEDUP_MPI_rb!$F$15:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.94</c:v>
+                  <c:v>0.582341</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.34</c:v>
+                  <c:v>0.62964699999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.73</c:v>
+                  <c:v>0.59556699999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.38</c:v>
+                  <c:v>0.66927000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.73</c:v>
+                  <c:v>0.75018499999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.21</c:v>
+                  <c:v>0.83741299999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1988,7 +1984,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-B019-4E9D-BF79-D2EEB0C775BD}"/>
+              <c16:uniqueId val="{00000004-B900-A44A-BE89-5B50B388CB27}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2329,6 +2325,2136 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>SPEEDUP_omp_Wave!$C$1:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>SPEED UP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>S2/1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.9042915877564236E-2"/>
+                  <c:y val="-1.6975112544026657E-16"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-0D0B-43CC-B7E3-5ED4E963AAF1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.2804124738264299E-2"/>
+                  <c:y val="3.4722222222222224E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-0D0B-43CC-B7E3-5ED4E963AAF1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.9782472407100248E-3"/>
+                  <c:y val="-3.2407407407407489E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-0D0B-43CC-B7E3-5ED4E963AAF1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-SA"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>SPEEDUP_omp_Wave!$A$3:$B$8</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0.040</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.080</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.120</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.170</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.240</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.350</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>400</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>600</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>800</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1000</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1200</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1400</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SPEEDUP_omp_Wave!$C$3:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.33333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44444444444444448</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.46153846153846151</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.51063829787234039</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.57377049180327866</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0D0B-43CC-B7E3-5ED4E963AAF1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SPEEDUP_omp_Wave!$D$1:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>SPEED UP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>S4/1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.6630002235818575E-2"/>
+                  <c:y val="-3.2407407407407406E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-0D0B-43CC-B7E3-5ED4E963AAF1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.0086471610207175E-2"/>
+                  <c:y val="-2.5462962962962962E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-0D0B-43CC-B7E3-5ED4E963AAF1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.074961975434845E-2"/>
+                  <c:y val="3.0092592592592591E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-0D0B-43CC-B7E3-5ED4E963AAF1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.4162951302292878E-2"/>
+                  <c:y val="5.3240740740740741E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-0D0B-43CC-B7E3-5ED4E963AAF1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.4532359425458585E-2"/>
+                  <c:y val="3.4722222222222224E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-0D0B-43CC-B7E3-5ED4E963AAF1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.4901767548624292E-2"/>
+                  <c:y val="3.0092592592592591E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-0D0B-43CC-B7E3-5ED4E963AAF1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-SA"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>SPEEDUP_omp_Wave!$A$3:$B$8</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0.040</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.080</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.120</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.170</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.240</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.350</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>400</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>600</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>800</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1000</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1200</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1400</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SPEEDUP_omp_Wave!$D$3:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.22222222222222224</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3529411764705882</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36956521739130438</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.40677966101694918</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.47945205479452052</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-0D0B-43CC-B7E3-5ED4E963AAF1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SPEEDUP_omp_Wave!$E$1:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>SPEED UP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>S8/1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-SA"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>SPEEDUP_omp_Wave!$A$3:$B$8</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0.040</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.080</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.120</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.170</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.240</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.350</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>400</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>600</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>800</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1000</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1200</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1400</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SPEEDUP_omp_Wave!$E$3:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10389610389610389</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11764705882352941</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13178294573643412</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14906832298136644</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.18229166666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-0D0B-43CC-B7E3-5ED4E963AAF1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SPEEDUP_omp_Wave!$F$1:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>SPEED UP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>S16/1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.9097053169344271E-2"/>
+                  <c:y val="-4.6296296296296294E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-0D0B-43CC-B7E3-5ED4E963AAF1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.1445298174235754E-2"/>
+                  <c:y val="-2.3148148148148317E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-0D0B-43CC-B7E3-5ED4E963AAF1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.5891185989487161E-2"/>
+                  <c:y val="3.7037037037036868E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-0D0B-43CC-B7E3-5ED4E963AAF1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.008647161020721E-2"/>
+                  <c:y val="-2.5462962962963048E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-0D0B-43CC-B7E3-5ED4E963AAF1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.6260594112652868E-2"/>
+                  <c:y val="-3.9351851851851936E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-0D0B-43CC-B7E3-5ED4E963AAF1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.1193955696500941E-3"/>
+                  <c:y val="1.8518518518518517E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-0D0B-43CC-B7E3-5ED4E963AAF1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-SA"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>SPEEDUP_omp_Wave!$A$3:$B$8</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0.040</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.080</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.120</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.170</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.240</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.350</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>400</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>600</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>800</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1000</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1200</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1400</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SPEEDUP_omp_Wave!$F$3:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.2553191489361708E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9701492537313432E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9364161849710976E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1428571428571438E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.7912087912087905E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10903426791277258</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-0D0B-43CC-B7E3-5ED4E963AAF1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="559952696"/>
+        <c:axId val="559952376"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="559952696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Problem size / serial</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> excuation time</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-SA"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-SA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="559952376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="559952376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speed</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> up</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-SA"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-SA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="559952696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-SA"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-SA"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SPEEDUP_omp_Wave!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sequential Excuation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+            <c:extLst/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>SPEEDUP_omp_Wave!$A$15:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SPEEDUP_omp_Wave!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B019-4E9D-BF79-D2EEB0C775BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SPEEDUP_omp_Wave!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S2/1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+            <c:extLst/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>SPEEDUP_omp_Wave!$A$15:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SPEEDUP_omp_Wave!$C$15:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B019-4E9D-BF79-D2EEB0C775BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SPEEDUP_omp_Wave!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S4/1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+            <c:extLst/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>SPEEDUP_omp_Wave!$A$15:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SPEEDUP_omp_Wave!$D$15:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B019-4E9D-BF79-D2EEB0C775BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SPEEDUP_omp_Wave!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S8/1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+            <c:extLst/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>SPEEDUP_omp_Wave!$A$15:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SPEEDUP_omp_Wave!$E$15:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.61</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B019-4E9D-BF79-D2EEB0C775BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SPEEDUP_omp_Wave!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S16/1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+            <c:extLst/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>SPEEDUP_omp_Wave!$A$15:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SPEEDUP_omp_Wave!$F$15:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.73</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B019-4E9D-BF79-D2EEB0C775BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="559952696"/>
+        <c:axId val="559952376"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="559952696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Problem size </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-SA"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-SA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="559952376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="559952376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Execuation</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> time</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-SA"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-SA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="559952696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-SA"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-SA"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>SPEEDUP_omp_rb!$C$1:$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
@@ -3647,7 +5773,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4589,6 +6715,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -6653,7 +8859,1123 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>119061</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>25401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>25401</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E885B1D-8B3C-AE44-AF54-5D4B20F0DC5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>68035</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>705259</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>44632</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94777DDC-C7E3-4947-845A-B875E8AA3CF1}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{796898CF-068F-4E60-B746-C37BD1B61EAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6737,7 +10059,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7117,11 +10439,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A1700C-2173-4A0F-B31C-5BC1A69BB710}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114C211E-9213-2C41-B3C3-88BF6FB543FB}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7171,19 +10493,19 @@
       </c>
       <c r="C3" s="4">
         <f>B3/C15</f>
-        <v>0.33333333333333337</v>
+        <v>2.5075225677031092</v>
       </c>
       <c r="D3" s="4">
         <f>B3/D15</f>
-        <v>0.22222222222222224</v>
+        <v>5.4377379010331701</v>
       </c>
       <c r="E3" s="4">
         <f>B3/E15</f>
-        <v>0.08</v>
+        <v>1.277139208173691</v>
       </c>
       <c r="F3" s="4">
         <f>B3/F15</f>
-        <v>4.2553191489361708E-2</v>
+        <v>6.8688277143460624E-2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -7195,19 +10517,19 @@
       </c>
       <c r="C4" s="4">
         <f t="shared" ref="C4:C8" si="0">B4/C16</f>
-        <v>0.44444444444444448</v>
+        <v>2.7187765505522514</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ref="D4:D8" si="1">B4/D16</f>
-        <v>0.33333333333333337</v>
+        <v>4.8143467533249087</v>
       </c>
       <c r="E4" s="4">
         <f t="shared" ref="E4:E8" si="2">B4/E16</f>
-        <v>0.10389610389610389</v>
+        <v>1.2274268530309773</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" ref="F4:F8" si="3">B4/F16</f>
-        <v>5.9701492537313432E-2</v>
+        <v>0.12705531829739522</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -7219,19 +10541,19 @@
       </c>
       <c r="C5" s="4">
         <f t="shared" si="0"/>
-        <v>0.46153846153846151</v>
+        <v>2.363693665300977</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="1"/>
-        <v>0.3529411764705882</v>
+        <v>4.4291883512346359</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="2"/>
-        <v>0.11764705882352941</v>
+        <v>1.1074197120708749</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" si="3"/>
-        <v>6.9364161849710976E-2</v>
+        <v>0.20148866542303387</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -7243,19 +10565,19 @@
       </c>
       <c r="C6" s="4">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>2.2302394227615614</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" si="1"/>
-        <v>0.36956521739130438</v>
+        <v>4.3798629360540016</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="2"/>
-        <v>0.13178294573643412</v>
+        <v>1.388469171900651</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" si="3"/>
-        <v>7.1428571428571438E-2</v>
+        <v>0.25400809837584232</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -7267,19 +10589,19 @@
       </c>
       <c r="C7" s="4">
         <f t="shared" si="0"/>
-        <v>0.51063829787234039</v>
+        <v>2.1698053503783599</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" si="1"/>
-        <v>0.40677966101694918</v>
+        <v>3.9468490988027889</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" si="2"/>
-        <v>0.14906832298136644</v>
+        <v>1.9748047823189145</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="3"/>
-        <v>8.7912087912087905E-2</v>
+        <v>0.31992108613208742</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -7291,19 +10613,19 @@
       </c>
       <c r="C8" s="4">
         <f t="shared" si="0"/>
-        <v>0.57377049180327866</v>
+        <v>2.3930314922944387</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="1"/>
-        <v>0.47945205479452052</v>
+        <v>4.5969765028829608</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" si="2"/>
-        <v>0.18229166666666666</v>
+        <v>1.8652242265980974</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="3"/>
-        <v>0.10903426791277258</v>
+        <v>0.41795386505822096</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="22" x14ac:dyDescent="0.2">
@@ -7322,16 +10644,16 @@
         <v>400</v>
       </c>
       <c r="C15" s="4">
-        <v>0.12</v>
+        <v>1.5952000000000001E-2</v>
       </c>
       <c r="D15" s="4">
-        <v>0.18</v>
+        <v>7.3559999999999997E-3</v>
       </c>
       <c r="E15" s="4">
-        <v>0.5</v>
+        <v>3.1320000000000001E-2</v>
       </c>
       <c r="F15" s="4">
-        <v>0.94</v>
+        <v>0.582341</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -7339,16 +10661,16 @@
         <v>600</v>
       </c>
       <c r="C16" s="4">
-        <v>0.18</v>
+        <v>2.9425E-2</v>
       </c>
       <c r="D16" s="4">
-        <v>0.24</v>
+        <v>1.6617E-2</v>
       </c>
       <c r="E16" s="4">
-        <v>0.77</v>
+        <v>6.5176999999999999E-2</v>
       </c>
       <c r="F16" s="4">
-        <v>1.34</v>
+        <v>0.62964699999999996</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -7356,16 +10678,16 @@
         <v>800</v>
       </c>
       <c r="C17" s="4">
-        <v>0.26</v>
+        <v>5.0768000000000001E-2</v>
       </c>
       <c r="D17" s="4">
-        <v>0.34</v>
+        <v>2.7092999999999999E-2</v>
       </c>
       <c r="E17" s="4">
-        <v>1.02</v>
+        <v>0.10836</v>
       </c>
       <c r="F17" s="4">
-        <v>1.73</v>
+        <v>0.59556699999999996</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -7373,16 +10695,16 @@
         <v>1000</v>
       </c>
       <c r="C18" s="4">
-        <v>0.34</v>
+        <v>7.6225000000000001E-2</v>
       </c>
       <c r="D18" s="4">
-        <v>0.46</v>
+        <v>3.8814000000000001E-2</v>
       </c>
       <c r="E18" s="4">
-        <v>1.29</v>
+        <v>0.122437</v>
       </c>
       <c r="F18" s="4">
-        <v>2.38</v>
+        <v>0.66927000000000003</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -7390,16 +10712,16 @@
         <v>1200</v>
       </c>
       <c r="C19" s="4">
-        <v>0.47</v>
+        <v>0.110609</v>
       </c>
       <c r="D19" s="4">
-        <v>0.59</v>
+        <v>6.0808000000000001E-2</v>
       </c>
       <c r="E19" s="4">
-        <v>1.61</v>
+        <v>0.121531</v>
       </c>
       <c r="F19" s="4">
-        <v>2.73</v>
+        <v>0.75018499999999999</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -7407,16 +10729,16 @@
         <v>1400</v>
       </c>
       <c r="C20" s="4">
-        <v>0.61</v>
+        <v>0.146258</v>
       </c>
       <c r="D20" s="4">
-        <v>0.73</v>
+        <v>7.6136999999999996E-2</v>
       </c>
       <c r="E20" s="4">
-        <v>1.92</v>
+        <v>0.18764500000000001</v>
       </c>
       <c r="F20" s="4">
-        <v>3.21</v>
+        <v>0.83741299999999996</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="22" x14ac:dyDescent="0.2">
@@ -7545,6 +10867,434 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A1700C-2173-4A0F-B31C-5BC1A69BB710}">
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView zoomScale="59" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="44" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>400</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="C3" s="4">
+        <f>B3/C15</f>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="D3" s="4">
+        <f>B3/D15</f>
+        <v>0.22222222222222224</v>
+      </c>
+      <c r="E3" s="4">
+        <f>B3/E15</f>
+        <v>0.08</v>
+      </c>
+      <c r="F3" s="4">
+        <f>B3/F15</f>
+        <v>4.2553191489361708E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>600</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="C4" s="4">
+        <f t="shared" ref="C4:C8" si="0">B4/C16</f>
+        <v>0.44444444444444448</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" ref="D4:D8" si="1">B4/D16</f>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" ref="E4:E8" si="2">B4/E16</f>
+        <v>0.10389610389610389</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" ref="F4:F8" si="3">B4/F16</f>
+        <v>5.9701492537313432E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>800</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="C5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.46153846153846151</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="1"/>
+        <v>0.3529411764705882</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="2"/>
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="3"/>
+        <v>6.9364161849710976E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.17</v>
+      </c>
+      <c r="C6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="1"/>
+        <v>0.36956521739130438</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="2"/>
+        <v>0.13178294573643412</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="3"/>
+        <v>7.1428571428571438E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>1200</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="C7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.51063829787234039</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="1"/>
+        <v>0.40677966101694918</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="2"/>
+        <v>0.14906832298136644</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="3"/>
+        <v>8.7912087912087905E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>1400</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.57377049180327866</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="1"/>
+        <v>0.47945205479452052</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="2"/>
+        <v>0.18229166666666666</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="3"/>
+        <v>0.10903426791277258</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="22" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>400</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>600</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.77</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>800</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.26</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.34</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1.02</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.34</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.46</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1.29</v>
+      </c>
+      <c r="F18" s="4">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>1200</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.47</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.59</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1.61</v>
+      </c>
+      <c r="F19" s="4">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>1400</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.61</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1.92</v>
+      </c>
+      <c r="F20" s="4">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="22" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>400</v>
+      </c>
+      <c r="B28" s="4">
+        <v>1.0329999999999999</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1.2669999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>600</v>
+      </c>
+      <c r="B29" s="4">
+        <v>2.2160000000000002</v>
+      </c>
+      <c r="C29" s="4">
+        <v>2.0960000000000001</v>
+      </c>
+      <c r="D29" s="4">
+        <v>2.1070000000000002</v>
+      </c>
+      <c r="E29" s="4">
+        <v>2.8439999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>800</v>
+      </c>
+      <c r="B30" s="4">
+        <v>4.0460000000000003</v>
+      </c>
+      <c r="C30" s="4">
+        <v>4.4329999999999998</v>
+      </c>
+      <c r="D30" s="4">
+        <v>4.452</v>
+      </c>
+      <c r="E30" s="4">
+        <v>6.1520000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B31" s="4">
+        <v>6.4729999999999999</v>
+      </c>
+      <c r="C31" s="4">
+        <v>6.7329999999999997</v>
+      </c>
+      <c r="D31" s="4">
+        <v>6.6929999999999996</v>
+      </c>
+      <c r="E31" s="4">
+        <v>8.8049999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>1200</v>
+      </c>
+      <c r="B32" s="4">
+        <v>7.18</v>
+      </c>
+      <c r="C32" s="4">
+        <v>9.7530000000000001</v>
+      </c>
+      <c r="D32" s="4">
+        <v>9.7530000000000001</v>
+      </c>
+      <c r="E32" s="4">
+        <v>13.401</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>1400</v>
+      </c>
+      <c r="B33" s="4">
+        <v>9.7810000000000006</v>
+      </c>
+      <c r="C33" s="4">
+        <v>13.186999999999999</v>
+      </c>
+      <c r="D33" s="4">
+        <v>13.054</v>
+      </c>
+      <c r="E33" s="4">
+        <v>17.782</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="B27:E27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76446062-A242-C949-855B-133B94840A22}">
   <dimension ref="A1:G33"/>
   <sheetViews>
